--- a/src/data/input/slotData/slot1course.xlsx
+++ b/src/data/input/slotData/slot1course.xlsx
@@ -15,33 +15,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>course_id</t>
   </si>
   <si>
-    <t>EL114</t>
+    <t>SC431</t>
   </si>
   <si>
-    <t>EL213</t>
+    <t>IT415</t>
   </si>
   <si>
-    <t>EL426</t>
+    <t>CS302</t>
   </si>
   <si>
-    <t>IT478</t>
+    <t>SC522</t>
   </si>
   <si>
-    <t>IT483</t>
+    <t>EL520</t>
   </si>
   <si>
-    <t>CT513</t>
-  </si>
-  <si>
-    <t>IT543</t>
-  </si>
-  <si>
-    <t>IT618</t>
+    <t>IT694</t>
   </si>
 </sst>
 </file>
@@ -870,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -911,16 +905,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
